--- a/other/input/sample_dates_tides.xlsx
+++ b/other/input/sample_dates_tides.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_BOR_WaterSMART\kenai-river-wqx-report-v2\other\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx\other\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="17">
   <si>
     <t>season</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>https://tidesandcurrents.noaa.gov/noaatidepredictions.html?id=TWC1983</t>
+  </si>
+  <si>
+    <t>BM 20250120</t>
   </si>
 </sst>
 </file>
@@ -395,26 +398,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -446,7 +449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>36992</v>
       </c>
@@ -475,7 +478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>37356</v>
       </c>
@@ -504,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>37740</v>
       </c>
@@ -533,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>38104</v>
       </c>
@@ -562,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>38468</v>
       </c>
@@ -591,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>38832</v>
       </c>
@@ -620,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>39203</v>
       </c>
@@ -649,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>39560</v>
       </c>
@@ -678,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>39931</v>
       </c>
@@ -707,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>40295</v>
       </c>
@@ -736,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>40659</v>
       </c>
@@ -765,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>41030</v>
       </c>
@@ -794,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>41401</v>
       </c>
@@ -823,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>41758</v>
       </c>
@@ -852,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42129</v>
       </c>
@@ -881,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42486</v>
       </c>
@@ -910,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42850</v>
       </c>
@@ -939,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43214</v>
       </c>
@@ -968,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43585</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44327</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44684</v>
       </c>
@@ -1055,514 +1058,514 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="C23" s="3">
+        <v>18.838999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="C24" s="3">
+        <v>24.14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4.63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>36725</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>0.24652777777777779</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <v>19.077000000000002</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>0.53402777777777777</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E25" s="3">
         <v>-1.65</v>
       </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>37096</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="2">
         <v>0.31180555555555556</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C26" s="3">
         <v>21.05</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D26" s="2">
         <v>0.59305555555555556</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E26" s="3">
         <v>-3.48</v>
       </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>37453</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B27" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>16.920000000000002</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D27" s="2">
         <v>0.67152777777777783</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E27" s="3">
         <v>0.63</v>
       </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>37824</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="2">
         <v>0.49513888888888885</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C28" s="3">
         <v>12.66</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D28" s="2">
         <v>0.77638888888888891</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E28" s="3">
         <v>6.4</v>
       </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>38188</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="2">
         <v>0.27638888888888885</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>18.77</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D29" s="2">
         <v>0.56180555555555556</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E29" s="3">
         <v>-1.61</v>
       </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>38559</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B30" s="2">
         <v>0.35902777777777778</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>18.57</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>0.63263888888888886</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E30" s="3">
         <v>-0.46</v>
       </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>38923</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B31" s="2">
         <v>0.2076388888888889</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>19.29</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D31" s="2">
         <v>0.49722222222222223</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <v>-2</v>
       </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>39280</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B32" s="2">
         <v>0.28055555555555556</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C32" s="3">
         <v>19.86</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>0.56319444444444444</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E32" s="3">
         <v>-2.4900000000000002</v>
       </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>39658</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B33" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C33" s="3">
         <v>18.190000000000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D33" s="2">
         <v>0.375</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E33" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>40015</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B34" s="2">
         <v>0.15972222222222224</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C34" s="3">
         <v>20.91</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="2">
         <v>0.45624999999999999</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E34" s="3">
         <v>-3.98</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>40386</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B35" s="2">
         <v>0.23611111111111113</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C35" s="3">
         <v>19.329999999999998</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D35" s="2">
         <v>0.51874999999999993</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E35" s="3">
         <v>-1.76</v>
       </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>40750</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B36" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C36" s="3">
         <v>15.54</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D36" s="2">
         <v>0.35069444444444442</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E36" s="3">
         <v>3.15</v>
       </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>41121</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B37" s="2">
         <v>0.12986111111111112</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C37" s="3">
         <v>19.829999999999998</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D37" s="2">
         <v>0.42638888888888887</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E37" s="3">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>41485</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B38" s="2">
         <v>0.46736111111111112</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C38" s="3">
         <v>13.67</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="2">
         <v>0.71875</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E38" s="3">
         <v>5.57</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>41842</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B39" s="2">
         <v>5.4166666666666669E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C39" s="3">
         <v>17.033000000000001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="2">
         <v>0.35902777777777778</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E39" s="3">
         <v>1.66</v>
       </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>42206</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B40" s="2">
         <v>0.33958333333333335</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C40" s="3">
         <v>16.75</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>0.61527777777777781</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E40" s="3">
         <v>1.28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>42577</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="C39" s="3">
-        <v>16.34</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.6743055555555556</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>42941</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.25625000000000003</v>
-      </c>
-      <c r="C40" s="3">
-        <v>22.13</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="E40" s="3">
-        <v>-4.53</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
@@ -1577,21 +1580,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>43312</v>
+        <v>42577</v>
       </c>
       <c r="B41" s="2">
-        <v>0.2902777777777778</v>
+        <v>0.40416666666666662</v>
       </c>
       <c r="C41" s="3">
-        <v>18.600000000000001</v>
+        <v>16.34</v>
       </c>
       <c r="D41" s="2">
-        <v>0.5708333333333333</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="E41" s="3">
-        <v>-0.72</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
@@ -1606,21 +1609,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>43676</v>
+        <v>42941</v>
       </c>
       <c r="B42" s="2">
-        <v>0.12986111111111112</v>
+        <v>0.25625000000000003</v>
       </c>
       <c r="C42" s="3">
-        <v>19.34</v>
+        <v>22.13</v>
       </c>
       <c r="D42" s="2">
-        <v>0.4284722222222222</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E42" s="3">
-        <v>-1.88</v>
+        <v>-4.53</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
@@ -1635,21 +1638,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44033</v>
+        <v>43312</v>
       </c>
       <c r="B43" s="2">
-        <v>0.21527777777777779</v>
+        <v>0.2902777777777778</v>
       </c>
       <c r="C43" s="3">
-        <v>20.51</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D43" s="2">
-        <v>0.50624999999999998</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="E43" s="3">
-        <v>-3.49</v>
+        <v>-0.72</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
@@ -1664,21 +1667,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44404</v>
+        <v>43676</v>
       </c>
       <c r="B44" s="2">
-        <v>0.29583333333333334</v>
+        <v>0.12986111111111112</v>
       </c>
       <c r="C44" s="3">
-        <v>20.2</v>
+        <v>19.34</v>
       </c>
       <c r="D44" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="E44" s="3">
-        <v>-2.4</v>
+        <v>-1.88</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
@@ -1693,21 +1696,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44768</v>
+        <v>44033</v>
       </c>
       <c r="B45" s="2">
-        <v>0.13819444444444443</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="C45" s="3">
-        <v>17.079999999999998</v>
+        <v>20.51</v>
       </c>
       <c r="D45" s="2">
-        <v>0.44027777777777777</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="E45" s="3">
-        <v>0.41099999999999998</v>
+        <v>-3.49</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
@@ -1720,6 +1723,122 @@
       </c>
       <c r="I45" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="E46" s="3">
+        <v>-2.4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="C47" s="3">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20.73</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="E48" s="3">
+        <v>-1.28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="C49" s="3">
+        <v>23.15</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E49" s="3">
+        <v>-3.91</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
